--- a/mallar/import/Tuthammar 2023 sep/extraktion_1_20230920_232500_uppsala_okt_2023.xlsx
+++ b/mallar/import/Tuthammar 2023 sep/extraktion_1_20230920_232500_uppsala_okt_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\import\Tuthammar 2023 sep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28891DEC-8482-490C-AEC3-C34DAC9DBF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CC33F3-5BA5-44FC-B744-3555CEA2168C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62400" yWindow="5430" windowWidth="19200" windowHeight="21000" tabRatio="696" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="696" activeTab="1" xr2:uid="{9C6C5895-3CBC-495A-8EC3-24DF642F0EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="ekipage" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="145">
   <si>
     <t>Linda Jenvall</t>
   </si>
@@ -435,6 +435,45 @@
   </si>
   <si>
     <t>Uppsala Mixed Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 domare 34 för 4 domare </t>
+  </si>
+  <si>
+    <t>3 domare</t>
+  </si>
+  <si>
+    <t>44 2 domare</t>
+  </si>
+  <si>
+    <t>51 3 domare</t>
+  </si>
+  <si>
+    <t>1058 2 domare</t>
+  </si>
+  <si>
+    <t>1059 3 domare</t>
+  </si>
+  <si>
+    <t>43 2 domare</t>
+  </si>
+  <si>
+    <t>48 3 domare</t>
+  </si>
+  <si>
+    <t>45 2 domare</t>
+  </si>
+  <si>
+    <t>49 3 domare</t>
+  </si>
+  <si>
+    <t>1055 2 domare</t>
+  </si>
+  <si>
+    <t>1056 3 domare</t>
+  </si>
+  <si>
+    <t>2 domare 1054 3 domare</t>
   </si>
 </sst>
 </file>
@@ -791,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B3B0E3-2027-4083-B582-AAB0C4C3F786}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2201,10 +2240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9D28CB-C6E2-4B8D-9091-1FD20615DBE1}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2213,7 +2252,7 @@
     <col min="3" max="3" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>630067</v>
       </c>
@@ -2223,8 +2262,11 @@
       <c r="C1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>630068</v>
       </c>
@@ -2234,8 +2276,11 @@
       <c r="C2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>630071</v>
       </c>
@@ -2245,8 +2290,11 @@
       <c r="C3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>630072</v>
       </c>
@@ -2256,8 +2304,11 @@
       <c r="C4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>630073</v>
       </c>
@@ -2267,8 +2318,11 @@
       <c r="C5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>630074</v>
       </c>
@@ -2278,8 +2332,11 @@
       <c r="C6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>630075</v>
       </c>
@@ -2289,8 +2346,14 @@
       <c r="C7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>630076</v>
       </c>
@@ -2300,8 +2363,11 @@
       <c r="C8" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>630077</v>
       </c>
@@ -2311,8 +2377,11 @@
       <c r="C9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>630078</v>
       </c>
@@ -2323,7 +2392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>630079</v>
       </c>
@@ -2334,7 +2403,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>630080</v>
       </c>
@@ -2344,8 +2413,14 @@
       <c r="C12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>630081</v>
       </c>
@@ -2355,8 +2430,14 @@
       <c r="C13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>630082</v>
       </c>
@@ -2366,8 +2447,14 @@
       <c r="C14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>630083</v>
       </c>
@@ -2377,8 +2464,17 @@
       <c r="C15" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>630084</v>
       </c>
@@ -2388,8 +2484,17 @@
       <c r="C16" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16">
+        <v>1059</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>630085</v>
       </c>
@@ -2399,8 +2504,17 @@
       <c r="C17" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>630086</v>
       </c>
@@ -2410,8 +2524,17 @@
       <c r="C18" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>630087</v>
       </c>
@@ -2420,6 +2543,15 @@
       </c>
       <c r="C19" t="s">
         <v>105</v>
+      </c>
+      <c r="D19">
+        <v>1056</v>
+      </c>
+      <c r="E19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5152B9-B788-4BDE-A1B2-C618945E4F4F}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
